--- a/mbs-perturbation/mega/randomForest/nearmiss/mega-randomForest-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/randomForest/nearmiss/mega-randomForest-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6857142857142856</v>
+        <v>0.8775510204081634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7311197916666666</v>
+        <v>0.8387949260042283</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9445921985815603</v>
+        <v>0.9852008456659619</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9215686274509803</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9591836734693878</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9973572938689218</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.6944444444444445</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9233156028368794</v>
+        <v>0.8578224101479915</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6422872340425532</v>
+        <v>0.7969172525689563</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8708610980624133</v>
+        <v>0.880061643782574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7707446808510638</v>
+        <v>0.8439746300211418</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7382220160791589</v>
+        <v>0.8517708250387936</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8354970079787234</v>
+        <v>0.8952185456512121</v>
       </c>
     </row>
   </sheetData>
